--- a/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Contra de la Mujer/Violencia en Contra de la Mujer.xlsx
+++ b/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Contra de la Mujer/Violencia en Contra de la Mujer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ineedso\Desktop\DESA 2023\SOLICITUDES DE INFORMACION 2023\Solicitud de Genero\VIOLENCIA\Violencia Contra de la Mujer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/unidadgenero_ine_gob_gt/Documents/Documentos/Github/CompendioGenero2023/Codigo/Bases/datos_administrativos/Indicadores_de_Género/VIOLENCIA/Violencia Contra de la Mujer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817353D-FC85-4E92-8D25-A536D8591D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0817353D-FC85-4E92-8D25-A536D8591D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36EDDE43-4530-43D4-92AC-E9474119EB8D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3A7592EE-3646-4205-A7BB-622F355477D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{3A7592EE-3646-4205-A7BB-622F355477D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Índice" sheetId="6" r:id="rId1"/>
@@ -1359,7 +1359,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1576,6 +1576,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="354">
     <cellStyle name="Millares 10" xfId="17" xr:uid="{B098736A-46AE-47D9-9EC5-0B43884043F6}"/>
@@ -1946,6 +1947,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2404,7 +2409,9 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3437,7 +3444,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3723,7 +3730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4211,10 +4218,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4654,6 +4661,12 @@
         <v>24</v>
       </c>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="80">
+        <f>SUM(B7:B11)</f>
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
@@ -4670,7 +4683,7 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -4928,6 +4941,9 @@
       <c r="A16" s="54" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4945,10 +4961,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5264,61 +5280,69 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="35">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="B20" s="35">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
         <v>211</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B21" s="38">
         <v>442</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C21" s="22">
         <v>368</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D21" s="22">
         <v>108</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E21" s="22">
         <v>361</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F21" s="22">
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="48" t="s">
         <v>24</v>
       </c>
     </row>
